--- a/autoConditions/train1Block3Test.xlsx
+++ b/autoConditions/train1Block3Test.xlsx
@@ -487,15 +487,11 @@
           <t>pngimages/19_burger.png</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
@@ -519,15 +515,11 @@
           <t>pngimages/13_toast.png</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+      <c r="E3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -551,15 +543,11 @@
           <t>pngimages/08_bell.png</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+      <c r="E4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/autoConditions/train1Block3Test.xlsx
+++ b/autoConditions/train1Block3Test.xlsx
@@ -469,78 +469,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/05_titopo.wav</t>
+          <t>trainingimages/11_tokiko</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/11_compass.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainaudio/19_papipi.wav</t>
+          <t>trainingimages/27_pakapa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/27_kiwi.png</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/20_tatito.wav</t>
+          <t>trainingimages/17_kotako</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainaudio/13_kopopi.wav</t>
+          <t>trainingimages/25_tapapi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/25_apple.png</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/14_pokoto.wav</t>
+          <t>trainingimages/12_pokika</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainaudio/08_tipako.wav</t>
+          <t>trainingimages/07_pitapi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/08_bell.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
       <c r="E4" t="n">

--- a/autoConditions/train1Block3Test.xlsx
+++ b/autoConditions/train1Block3Test.xlsx
@@ -469,78 +469,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingimages/11_tokiko</t>
+          <t>trainingaudio/17_kotako2.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainingimages/27_pakapa</t>
+          <t>trainingaudio/02_pitito3.wav</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/27_kiwi.png</t>
+          <t>pngimages/02_pallet.png</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingimages/17_kotako</t>
+          <t>trainingaudio/26_kapako1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/17_cracker.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainingimages/25_tapapi</t>
+          <t>trainingaudio/19_papipi1.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingimages/12_pokika</t>
+          <t>trainingaudio/16_kotapi2.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/12_pie.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainingimages/07_pitapi</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
       <c r="E4" t="n">
